--- a/Case Study IV-20230511/simulator_data.xlsx
+++ b/Case Study IV-20230511/simulator_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mendieta\Documents\ADDDM\Case Study IV-20220217\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harrisso\Documents\TA to send to H\ADDDM\Advanced Data Driven Decision Making\Conjoint_Use_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0F799A-0F2E-4F17-A3C4-6A724D74874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59448FD1-48F6-42B7-B5B6-DBB222037E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="450" windowWidth="14700" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,15 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>JVC</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
   <si>
     <t>25" Screen</t>
   </si>
@@ -68,15 +77,6 @@
   </si>
   <si>
     <t>price450</t>
-  </si>
-  <si>
-    <t>Xiami</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Apple</t>
   </si>
 </sst>
 </file>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,74 +470,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE353"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="53" width="9.109375" customWidth="1"/>
-    <col min="54" max="54" width="11.5546875" customWidth="1"/>
-    <col min="55" max="256" width="9.109375" customWidth="1"/>
+    <col min="1" max="53" width="9.140625" customWidth="1"/>
+    <col min="54" max="54" width="11.5703125" customWidth="1"/>
+    <col min="55" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -593,7 +593,7 @@
         <v>-1.8069999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11</v>
       </c>
@@ -889,7 +889,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -945,7 +945,7 @@
         <v>-0.55800000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>-3.823</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>-2.8820000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>-0.51200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>-3.0129999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>17</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>-3.3210000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>18</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>-3.6030000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>19</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>-0.94899999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>-3.7570000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>-1.58</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>25</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>-1.9830000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>26</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>-3.1920000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>-2.5169999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>28</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>-1.522</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>29</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>-0.77800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>30</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>31</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>32</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>-0.314</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>51</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>-1.718</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>52</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>-1.6819999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>53</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>-2.141</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>54</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>55</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>-1.855</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>56</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>-3.4329999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>57</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>-0.997</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>58</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>-1.8080000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>59</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>-1.796</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>61</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>-0.59399999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>63</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>-3.9790000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>64</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>-3.87</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>65</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>-0.437</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>66</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>-2.58</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>67</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>-3.7069999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>68</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>69</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>-2.8250000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>70</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>-1.1379999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>71</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>-1.042</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>72</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-2.073</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>73</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>-1.7350000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>74</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-3.105</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>75</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>-3.194</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>76</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>-1.893</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>77</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>78</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>-3.5339999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>79</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>80</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>-1.0509999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>101</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>-0.93600000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>102</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>-2.0419999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>103</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>-4.024</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>105</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>-2.258</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>107</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>-0.97499999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>108</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>109</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>-1.236</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>110</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>-1.095</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>112</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>115</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>-0.45400000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>116</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>-0.32500000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>119</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>-0.189</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>120</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>-2.08</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>121</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>-0.42399999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>122</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>-0.91800000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>123</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>-3.399</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>125</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>-2.0859999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>126</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>-1.8859999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>128</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>130</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>-2.2229999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>131</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>-0.184</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>136</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>139</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>-0.98099999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>140</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>-3.294</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>151</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>152</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>-0.503</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>153</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>154</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>-0.72399999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>155</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>-0.84299999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>157</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>158</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>-0.90700000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>159</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>-1.6679999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>160</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>-0.52300000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>161</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>-1.4370000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>162</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>-0.41899999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>163</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>-0.98799999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>164</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>-0.95599999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>165</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>-1.5580000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>166</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>-0.51800000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>167</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>-2.2589999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>168</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>-1.9610000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>169</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>170</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>-1.8819999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>172</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>-0.92900000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>173</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>-0.94699999999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>174</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>-2.7389999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>175</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>-0.77500000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>176</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>-0.52800000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>177</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>-1.3029999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>178</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>-2.198</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>179</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>-1.1499999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>180</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>-1.847</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>181</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>-1.9350000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>182</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>-2.8149999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>183</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>-1.762</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>184</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>-1.67</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>185</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>-0.64300000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>201</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>202</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>-1.534</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>203</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>-1.4490000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>204</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>205</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>-1.5169999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>206</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>-1.764</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>207</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>-2.827</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>208</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>209</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>210</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>-2.379</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>211</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>-0.39200000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>212</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>-1.5029999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>213</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>-2.254</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>214</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>-0.625</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>215</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>-0.26400000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>216</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>-2.97</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>217</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>-2.456</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>218</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>-0.32700000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>219</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>-1.1850000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>220</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>-0.16600000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>221</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>-1.5329999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>222</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>-3.4119999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>223</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>-3.3239999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>224</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>-0.88100000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>225</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>227</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>228</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>-0.309</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>229</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>-3.6240000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>230</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>-2.5009999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>231</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>232</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>-1.677</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>233</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>234</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>-3.718</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>235</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>-3.6230000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>236</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>-0.89300000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>302</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>-3.4159999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>303</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>-0.71399999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>304</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>-3.1320000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>305</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>-2.7959999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>306</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>-3.2909999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>307</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>308</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>-0.23799999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>309</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>-2.2909999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>310</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>-1.427</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>311</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>-0.93500000000000005</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>312</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>-0.56599999999999995</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>313</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>-2.8180000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>314</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>-3.36</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>315</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>-2.085</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>316</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>-1.7689999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>317</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>-3.1779999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>318</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>-1.0269999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>319</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>-2.613</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>320</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>-2.8159999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>321</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>322</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>-1.6619999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>323</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>-1.1419999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>324</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>-0.98099999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>325</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>-2.6150000000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>326</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>327</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>-2.0059999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>328</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>-0.21299999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>329</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>-0.123</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>330</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>-3.9209999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>331</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>-2.7879999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>332</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>-3.6419999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>333</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>-2.4609999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>334</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>-2.3940000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>335</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>-0.97799999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>337</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>338</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>339</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>-0.219</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>340</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>341</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>-0.85799999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>351</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>352</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>-2.133</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>353</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>354</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>-1.966</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>355</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>-3.2069999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>356</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>-0.70399999999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>357</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>-1.343</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>358</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>-3.06</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>359</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>-0.497</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>360</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>-1.946</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>361</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>-0.90800000000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>362</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>-2.5979999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>363</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>-2.6859999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>364</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>-3.423</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>365</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>1.1970000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>366</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>368</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>-1.286</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>369</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>370</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>371</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>-0.91700000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>373</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>374</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>-1.835</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>375</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>-1.8320000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>376</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>-0.47399999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>377</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>-1.4510000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>402</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>-0.56000000000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>403</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>-3.1179999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>404</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>405</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>-2.532</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>406</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>-0.629</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>408</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>-1.399</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>409</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>410</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>-0.39600000000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>411</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>-0.88400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>412</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>-2.048</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>413</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>-0.95399999999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>414</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>-0.52300000000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>415</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>-2.4369999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>416</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>417</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>418</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>-0.83699999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>428</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>-3.0030000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>451</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>-0.23100000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>452</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>-2.2690000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>453</v>
       </c>
@@ -13321,7 +13321,7 @@
         <v>-1.8420000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>454</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>-1.845</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>455</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>-0.371</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>456</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>-1.3120000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>457</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>-1.8580000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>458</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>-1.9370000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>459</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>-0.39300000000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>460</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>-2.6360000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>461</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>-1.9239999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>462</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>-1.681</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>463</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>464</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>-1.8180000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>465</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>467</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>-1.528</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>468</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>-1.54</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>471</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>-0.35599999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>472</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>-1.006</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>473</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>-1.2989999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>474</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>-1.389</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>475</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>-0.44600000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>476</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>477</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>-2.3359999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>478</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>479</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>-2.278</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>480</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>481</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>-2.6110000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>501</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>-1.095</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>502</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>503</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>-0.47899999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>505</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>-3.9580000000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>506</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>-0.33700000000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>507</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>-2.2549999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>509</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>510</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>-0.73899999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>511</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>-1.6120000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>512</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>-3.3919999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>513</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>-2.5179999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>514</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>515</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>517</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>-2.5859999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>518</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>-0.751</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>520</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>-0.89900000000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>521</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>-2.8119999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>522</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>-2.9249999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>523</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>-1.038</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>524</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>-2.153</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>525</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>-3.11</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>526</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>-3.8210000000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>527</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>-1.2969999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>528</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>-0.38800000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>551</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>554</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>555</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>-3.4489999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>557</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>-3.3090000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>560</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>-1.9670000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>562</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>-2.1669999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>563</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>-0.995</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>565</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>-1.9550000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>566</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>567</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>-0.253</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>568</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>-2.0409999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>569</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>-0.11700000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>570</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>-1.5429999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>571</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>-0.23599999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>572</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>573</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>-0.54400000000000004</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>575</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>-1.5449999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>576</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>-1.925</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>577</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>-0.70399999999999996</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>578</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>-1.1399999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>579</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>-3.1589999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>604</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>-2.851</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>605</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>-1.208</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>606</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>-2.754</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>607</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>-1.65</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>608</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>-0.28499999999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>609</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>-0.58599999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>610</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>-2.7090000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>611</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>-0.81399999999999995</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>612</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>-1.1719999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>613</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>-1.69</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>614</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>-1.9430000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>615</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>-0.999</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>616</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>-1.23</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>617</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>-3.1749999999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>618</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>619</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>-2.0249999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>620</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>-2.62</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>621</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>-1.944</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>622</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>-2.9510000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>623</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>-0.40100000000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>624</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>-1.2809999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>625</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>-0.97299999999999998</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>626</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>-0.91400000000000003</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>627</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>-0.14599999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>628</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>-1.375</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>629</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>630</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>631</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>-2.0539999999999998</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>632</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>-2.464</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>633</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>-1.716</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1351</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>-2.8340000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1352</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>-1.105</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1353</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>-1.7030000000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1354</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1355</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>-1.601</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1356</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>-0.56499999999999995</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1501</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>-0.38100000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1502</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>-3.2320000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1503</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>-3.5350000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1504</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>-2.8370000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1505</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1506</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>-0.53300000000000003</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1507</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>-3.7730000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1509</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>-1.9339999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1510</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1511</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>-1.012</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1512</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>-2.5179999999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1513</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>-1.1279999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1514</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>-2.5790000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1515</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>-3.1379999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1516</v>
       </c>
@@ -20097,7 +20097,7 @@
         <v>-1.7090000000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1517</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1518</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1519</v>
       </c>
